--- a/biology/Zoologie/Graphium_idaeoides/Graphium_idaeoides.xlsx
+++ b/biology/Zoologie/Graphium_idaeoides/Graphium_idaeoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graphium idaeoides est une espèce de lépidoptères de la famille des Papilionidae, à la sous-famille des Papilioninae et au genre Graphium. L'espèce est endémique des Philippines.
 </t>
@@ -511,9 +523,11 @@
           <t>Description de l'imago</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graphium idaeoides est un grand papillon blanc et noir. L'espèce est mimétique de Idea leuconoe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graphium idaeoides est un grand papillon blanc et noir. L'espèce est mimétique de Idea leuconoe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graphium idaeoides est endémique de l'est des Philippines et a été repéré sur les îles de Luçon, Samar, Leyte et Mindanao. L'espèce vit dans les forêts tropicales humides de l'archipel[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graphium idaeoides est endémique de l'est des Philippines et a été repéré sur les îles de Luçon, Samar, Leyte et Mindanao. L'espèce vit dans les forêts tropicales humides de l'archipel.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite pour la première fois par William Chapman Hewitson en 1853, dans Illustrations of new species of exotic butterflies, sous le nom Papilio idaeoides[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois par William Chapman Hewitson en 1853, dans Illustrations of new species of exotic butterflies, sous le nom Papilio idaeoides.
 </t>
         </is>
       </c>
